--- a/GUI + Reviews/202512/Review 202512/Dataiku/EZMS_EMS_2025-12-11 23_59_59_2025-12-11-22-53-30.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EZMS_EMS_2025-12-11 23_59_59_2025-12-11-22-53-30.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_8FF252D2A9AC14846E670B176B9D96DCD4BC5652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22036E28-52B5-4E02-B3A8-81C54748BEAA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2838,8 +2857,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2902,13 +2921,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2946,7 +2973,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2980,6 +3007,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3014,9 +3042,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3189,14 +3218,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="Q407" sqref="Q406:Q407"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3222,7 +3253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3248,7 +3279,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3274,7 +3305,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3288,7 +3319,7 @@
         <v>110580102</v>
       </c>
       <c r="E4">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3300,7 +3331,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3326,7 +3357,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3352,7 +3383,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3378,7 +3409,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3404,7 +3435,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3430,7 +3461,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3456,7 +3487,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3482,7 +3513,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3508,7 +3539,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3534,7 +3565,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3560,7 +3591,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3586,7 +3617,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3612,7 +3643,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3638,7 +3669,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3664,7 +3695,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3690,7 +3721,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3716,7 +3747,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3730,7 +3761,7 @@
         <v>262769869</v>
       </c>
       <c r="E21">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3742,7 +3773,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3768,7 +3799,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3794,7 +3825,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3820,7 +3851,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3834,7 +3865,7 @@
         <v>601548734</v>
       </c>
       <c r="E25">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3846,7 +3877,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3872,7 +3903,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3898,7 +3929,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3912,7 +3943,7 @@
         <v>35343326</v>
       </c>
       <c r="E28">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3924,7 +3955,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3950,7 +3981,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3964,7 +3995,7 @@
         <v>226388620</v>
       </c>
       <c r="E30">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3976,7 +4007,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4002,7 +4033,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4028,7 +4059,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4042,7 +4073,7 @@
         <v>73184570</v>
       </c>
       <c r="E33">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4054,7 +4085,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -4080,7 +4111,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4106,7 +4137,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4132,7 +4163,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4146,7 +4177,7 @@
         <v>76060831</v>
       </c>
       <c r="E37">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4158,7 +4189,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4184,7 +4215,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -4210,7 +4241,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -4224,7 +4255,7 @@
         <v>209113565</v>
       </c>
       <c r="E40">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -4236,7 +4267,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -4262,7 +4293,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -4276,7 +4307,7 @@
         <v>15906272</v>
       </c>
       <c r="E42">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -4288,7 +4319,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -4302,7 +4333,7 @@
         <v>100050990</v>
       </c>
       <c r="E43">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4314,7 +4345,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -4340,7 +4371,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -4366,7 +4397,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -4392,7 +4423,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4418,7 +4449,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4432,7 +4463,7 @@
         <v>243921719</v>
       </c>
       <c r="E48">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4444,7 +4475,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4470,7 +4501,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4496,7 +4527,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4522,7 +4553,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -4536,7 +4567,7 @@
         <v>61540455</v>
       </c>
       <c r="E52">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -4548,7 +4579,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4574,7 +4605,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -4600,7 +4631,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -4626,7 +4657,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4652,7 +4683,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -4678,7 +4709,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -4692,7 +4723,7 @@
         <v>66000000</v>
       </c>
       <c r="E58">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4704,7 +4735,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -4730,7 +4761,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -4756,7 +4787,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4782,7 +4813,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -4808,7 +4839,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -4834,7 +4865,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -4860,7 +4891,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -4886,7 +4917,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4912,7 +4943,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -4938,7 +4969,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -4964,7 +4995,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -4990,7 +5021,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -5016,7 +5047,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -5042,7 +5073,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -5068,7 +5099,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -5094,7 +5125,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -5120,7 +5151,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -5146,7 +5177,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -5172,7 +5203,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -5198,7 +5229,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -5224,7 +5255,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -5250,7 +5281,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -5276,7 +5307,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -5302,7 +5333,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -5316,7 +5347,7 @@
         <v>171347471</v>
       </c>
       <c r="E82">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -5328,7 +5359,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -5354,7 +5385,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -5380,7 +5411,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -5406,7 +5437,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -5432,7 +5463,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -5458,7 +5489,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -5484,7 +5515,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -5510,7 +5541,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -5536,7 +5567,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -5562,7 +5593,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -5576,7 +5607,7 @@
         <v>119807490</v>
       </c>
       <c r="E92">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -5588,7 +5619,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -5614,7 +5645,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -5640,7 +5671,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -5666,7 +5697,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -5692,7 +5723,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -5718,7 +5749,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5744,7 +5775,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -5770,7 +5801,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5796,7 +5827,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5810,7 +5841,7 @@
         <v>34280750</v>
       </c>
       <c r="E101">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -5822,7 +5853,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -5836,7 +5867,7 @@
         <v>200005980</v>
       </c>
       <c r="E102">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -5848,7 +5879,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5874,7 +5905,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -5900,7 +5931,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5926,7 +5957,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -5952,7 +5983,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -5972,7 +6003,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -5998,7 +6029,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -6024,7 +6055,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -6050,7 +6081,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -6076,7 +6107,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -6102,7 +6133,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -6128,7 +6159,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -6154,7 +6185,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -6180,7 +6211,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -6206,7 +6237,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -6232,7 +6263,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -6258,7 +6289,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -6284,7 +6315,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -6310,7 +6341,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -6336,7 +6367,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -6362,7 +6393,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -6388,7 +6419,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -6414,7 +6445,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -6440,7 +6471,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -6466,7 +6497,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -6492,7 +6523,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -6518,7 +6549,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -6544,7 +6575,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -6570,7 +6601,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -6596,7 +6627,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -6622,7 +6653,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -6648,7 +6679,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -6674,7 +6705,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -6700,7 +6731,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -6714,7 +6745,7 @@
         <v>237553695</v>
       </c>
       <c r="E136">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6726,7 +6757,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -6752,7 +6783,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -6778,7 +6809,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -6804,7 +6835,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -6830,7 +6861,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -6856,7 +6887,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -6882,7 +6913,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -6908,7 +6939,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -6934,7 +6965,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -6960,7 +6991,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -6974,7 +7005,7 @@
         <v>71925760</v>
       </c>
       <c r="E146">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -6986,7 +7017,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -7012,7 +7043,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -7038,7 +7069,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -7064,7 +7095,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -7078,7 +7109,7 @@
         <v>466000000</v>
       </c>
       <c r="E150">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -7090,7 +7121,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -7116,7 +7147,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -7142,7 +7173,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -7168,7 +7199,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -7194,7 +7225,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -7220,7 +7251,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -7246,7 +7277,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -7272,7 +7303,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -7298,7 +7329,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -7324,7 +7355,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -7350,7 +7381,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -7376,7 +7407,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -7402,7 +7433,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -7428,7 +7459,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -7454,7 +7485,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -7480,7 +7511,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -7506,7 +7537,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -7532,7 +7563,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -7546,7 +7577,7 @@
         <v>197089340</v>
       </c>
       <c r="E168">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -7558,7 +7589,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -7584,7 +7615,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -7610,7 +7641,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -7636,7 +7667,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -7662,7 +7693,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -7688,7 +7719,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -7702,7 +7733,7 @@
         <v>65897071</v>
       </c>
       <c r="E174">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -7714,7 +7745,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -7740,7 +7771,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -7754,7 +7785,7 @@
         <v>133200000</v>
       </c>
       <c r="E176">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -7766,7 +7797,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -7792,7 +7823,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -7806,7 +7837,7 @@
         <v>76792337</v>
       </c>
       <c r="E178">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -7818,7 +7849,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -7832,7 +7863,7 @@
         <v>550000000</v>
       </c>
       <c r="E179">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -7844,7 +7875,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -7870,7 +7901,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -7896,7 +7927,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -7922,7 +7953,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -7948,7 +7979,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -7974,7 +8005,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -8000,7 +8031,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -8026,7 +8057,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -8052,7 +8083,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -8078,7 +8109,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -8104,7 +8135,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -8130,7 +8161,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -8144,7 +8175,7 @@
         <v>99181149</v>
       </c>
       <c r="E191">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -8156,7 +8187,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -8182,7 +8213,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -8208,7 +8239,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -8234,7 +8265,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -8260,7 +8291,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -8286,7 +8317,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -8312,7 +8343,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -8338,7 +8369,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -8352,7 +8383,7 @@
         <v>1489538745</v>
       </c>
       <c r="E199">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -8364,7 +8395,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -8390,7 +8421,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -8416,7 +8447,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -8442,7 +8473,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -8468,7 +8499,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -8494,7 +8525,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -8520,7 +8551,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -8546,7 +8577,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -8572,7 +8603,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -8598,7 +8629,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -8624,7 +8655,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -8650,7 +8681,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -8676,7 +8707,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -8702,7 +8733,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -8728,7 +8759,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -8754,7 +8785,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -8780,7 +8811,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -8806,7 +8837,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -8832,7 +8863,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -8858,7 +8889,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -8884,7 +8915,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -8910,7 +8941,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -8936,7 +8967,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -8962,7 +8993,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -8988,7 +9019,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -9014,7 +9045,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -9040,7 +9071,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -9066,7 +9097,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -9092,7 +9123,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -9106,7 +9137,7 @@
         <v>123420778</v>
       </c>
       <c r="E228">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -9118,7 +9149,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -9144,7 +9175,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -9158,7 +9189,7 @@
         <v>131198650</v>
       </c>
       <c r="E230">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -9170,7 +9201,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -9196,7 +9227,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -9222,7 +9253,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -9248,7 +9279,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -9274,7 +9305,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -9300,7 +9331,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -9326,7 +9357,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -9352,7 +9383,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -9378,7 +9409,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -9404,7 +9435,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -9430,7 +9461,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -9456,7 +9487,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -9482,7 +9513,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -9508,7 +9539,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -9534,7 +9565,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -9560,7 +9591,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -9586,7 +9617,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -9612,7 +9643,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -9638,7 +9669,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -9664,7 +9695,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -9690,7 +9721,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -9716,7 +9747,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -9742,7 +9773,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -9768,7 +9799,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -9794,7 +9825,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -9820,7 +9851,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -9846,7 +9877,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -9872,7 +9903,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -9898,7 +9929,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -9924,7 +9955,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -9950,7 +9981,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -9976,7 +10007,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -10002,7 +10033,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -10028,7 +10059,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -10054,7 +10085,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -10080,7 +10111,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -10106,7 +10137,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -10132,7 +10163,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -10158,7 +10189,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -10184,7 +10215,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -10210,7 +10241,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -10236,7 +10267,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -10262,7 +10293,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>279</v>
       </c>
@@ -10288,7 +10319,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>280</v>
       </c>
@@ -10314,7 +10345,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>281</v>
       </c>
@@ -10340,7 +10371,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>282</v>
       </c>
@@ -10354,7 +10385,7 @@
         <v>769211060</v>
       </c>
       <c r="E276">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -10366,7 +10397,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>283</v>
       </c>
@@ -10392,7 +10423,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -10406,7 +10437,7 @@
         <v>43744779</v>
       </c>
       <c r="E278">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -10418,7 +10449,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -10444,7 +10475,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -10470,7 +10501,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -10496,7 +10527,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>288</v>
       </c>
@@ -10510,7 +10541,7 @@
         <v>236450360</v>
       </c>
       <c r="E282">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -10522,7 +10553,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -10548,7 +10579,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>290</v>
       </c>
@@ -10574,7 +10605,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>291</v>
       </c>
@@ -10600,7 +10631,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>292</v>
       </c>
@@ -10626,7 +10657,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -10652,7 +10683,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>294</v>
       </c>
@@ -10678,7 +10709,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>295</v>
       </c>
@@ -10704,7 +10735,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -10730,7 +10761,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -10744,7 +10775,7 @@
         <v>255032123</v>
       </c>
       <c r="E291">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -10756,7 +10787,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -10782,7 +10813,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -10808,7 +10839,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -10834,7 +10865,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -10860,7 +10891,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -10886,7 +10917,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -10912,7 +10943,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -10938,7 +10969,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -10952,7 +10983,7 @@
         <v>147174692</v>
       </c>
       <c r="E299">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -10964,7 +10995,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -10990,7 +11021,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -11016,7 +11047,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -11042,7 +11073,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -11068,7 +11099,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -11094,7 +11125,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>311</v>
       </c>
@@ -11120,7 +11151,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>312</v>
       </c>
@@ -11146,7 +11177,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -11172,7 +11203,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -11198,7 +11229,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>315</v>
       </c>
@@ -11224,7 +11255,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -11250,7 +11281,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -11276,7 +11307,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>318</v>
       </c>
@@ -11302,7 +11333,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>319</v>
       </c>
@@ -11328,7 +11359,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -11342,7 +11373,7 @@
         <v>175977424</v>
       </c>
       <c r="E314">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F314">
         <v>1</v>
@@ -11354,7 +11385,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>321</v>
       </c>
@@ -11380,7 +11411,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>322</v>
       </c>
@@ -11394,7 +11425,7 @@
         <v>209125156</v>
       </c>
       <c r="E316">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -11406,7 +11437,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -11432,7 +11463,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -11458,7 +11489,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>325</v>
       </c>
@@ -11484,7 +11515,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>326</v>
       </c>
@@ -11510,7 +11541,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>327</v>
       </c>
@@ -11536,7 +11567,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>328</v>
       </c>
@@ -11562,7 +11593,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>329</v>
       </c>
@@ -11588,7 +11619,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -11614,7 +11645,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -11640,7 +11671,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -11666,7 +11697,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -11692,7 +11723,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -11718,7 +11749,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>335</v>
       </c>
@@ -11744,7 +11775,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>336</v>
       </c>
@@ -11770,7 +11801,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>337</v>
       </c>
@@ -11796,7 +11827,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>338</v>
       </c>
@@ -11822,7 +11853,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>339</v>
       </c>
@@ -11848,7 +11879,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>340</v>
       </c>
@@ -11874,7 +11905,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>341</v>
       </c>
@@ -11900,7 +11931,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -11926,7 +11957,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -11952,7 +11983,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>344</v>
       </c>
@@ -11978,7 +12009,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>345</v>
       </c>
@@ -12004,7 +12035,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>346</v>
       </c>
@@ -12030,7 +12061,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>347</v>
       </c>
@@ -12044,7 +12075,7 @@
         <v>171361365</v>
       </c>
       <c r="E341">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F341">
         <v>1</v>
@@ -12056,7 +12087,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>348</v>
       </c>
@@ -12082,7 +12113,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>349</v>
       </c>
@@ -12096,7 +12127,7 @@
         <v>179363695</v>
       </c>
       <c r="E343">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -12108,7 +12139,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>350</v>
       </c>
@@ -12134,7 +12165,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>351</v>
       </c>
@@ -12148,7 +12179,7 @@
         <v>55337770</v>
       </c>
       <c r="E345">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -12160,7 +12191,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>352</v>
       </c>
@@ -12186,7 +12217,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>353</v>
       </c>
@@ -12212,7 +12243,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>354</v>
       </c>
@@ -12238,7 +12269,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>355</v>
       </c>
@@ -12264,7 +12295,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>356</v>
       </c>
@@ -12278,7 +12309,7 @@
         <v>128344238</v>
       </c>
       <c r="E350">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -12290,7 +12321,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -12316,7 +12347,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>358</v>
       </c>
@@ -12342,7 +12373,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>359</v>
       </c>
@@ -12368,7 +12399,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>360</v>
       </c>
@@ -12382,7 +12413,7 @@
         <v>3360857809</v>
       </c>
       <c r="E354">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -12394,7 +12425,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>361</v>
       </c>
@@ -12420,7 +12451,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>362</v>
       </c>
@@ -12434,7 +12465,7 @@
         <v>147454887</v>
       </c>
       <c r="E356">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -12446,7 +12477,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -12472,7 +12503,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>364</v>
       </c>
@@ -12498,7 +12529,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>365</v>
       </c>
@@ -12524,7 +12555,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>366</v>
       </c>
@@ -12550,7 +12581,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>367</v>
       </c>
@@ -12564,7 +12595,7 @@
         <v>20547701</v>
       </c>
       <c r="E361">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F361">
         <v>1</v>
@@ -12576,7 +12607,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>368</v>
       </c>
@@ -12602,7 +12633,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>369</v>
       </c>
@@ -12616,7 +12647,7 @@
         <v>911281920</v>
       </c>
       <c r="E363">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -12628,7 +12659,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>370</v>
       </c>
@@ -12654,7 +12685,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>371</v>
       </c>
@@ -12680,7 +12711,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>372</v>
       </c>
@@ -12694,7 +12725,7 @@
         <v>103921273</v>
       </c>
       <c r="E366">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -12706,7 +12737,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>373</v>
       </c>
@@ -12732,7 +12763,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>374</v>
       </c>
@@ -12758,7 +12789,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>375</v>
       </c>
@@ -12784,7 +12815,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>376</v>
       </c>
@@ -12798,7 +12829,7 @@
         <v>184379301</v>
       </c>
       <c r="E370">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F370">
         <v>1</v>
@@ -12810,7 +12841,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>377</v>
       </c>
@@ -12836,7 +12867,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>378</v>
       </c>
@@ -12862,7 +12893,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>379</v>
       </c>
@@ -12876,7 +12907,7 @@
         <v>201327500</v>
       </c>
       <c r="E373">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F373">
         <v>1</v>
@@ -12888,7 +12919,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>380</v>
       </c>
@@ -12914,7 +12945,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>381</v>
       </c>
@@ -12928,7 +12959,7 @@
         <v>80301260</v>
       </c>
       <c r="E375">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F375">
         <v>1</v>
@@ -12940,7 +12971,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>382</v>
       </c>
@@ -12966,7 +12997,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>383</v>
       </c>
@@ -12992,7 +13023,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>384</v>
       </c>
@@ -13018,7 +13049,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>385</v>
       </c>
@@ -13044,7 +13075,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>386</v>
       </c>
@@ -13070,7 +13101,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>387</v>
       </c>
@@ -13096,7 +13127,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>388</v>
       </c>
@@ -13110,7 +13141,7 @@
         <v>2009992000</v>
       </c>
       <c r="E382">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F382">
         <v>1</v>
@@ -13122,7 +13153,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>389</v>
       </c>
@@ -13148,7 +13179,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>390</v>
       </c>
@@ -13174,7 +13205,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>391</v>
       </c>
@@ -13200,7 +13231,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>392</v>
       </c>
@@ -13226,7 +13257,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>393</v>
       </c>
@@ -13252,7 +13283,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>394</v>
       </c>
@@ -13266,7 +13297,7 @@
         <v>42198429</v>
       </c>
       <c r="E388">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F388">
         <v>1</v>
@@ -13278,7 +13309,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>395</v>
       </c>
@@ -13304,7 +13335,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>396</v>
       </c>
@@ -13330,7 +13361,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>397</v>
       </c>
@@ -13356,7 +13387,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>398</v>
       </c>
@@ -13382,7 +13413,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>399</v>
       </c>
@@ -13408,7 +13439,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>400</v>
       </c>
@@ -13422,7 +13453,7 @@
         <v>1834181554</v>
       </c>
       <c r="E394">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F394">
         <v>1</v>
@@ -13434,7 +13465,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>401</v>
       </c>
@@ -13460,7 +13491,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>402</v>
       </c>
@@ -13474,7 +13505,7 @@
         <v>143244727</v>
       </c>
       <c r="E396">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F396">
         <v>1</v>
@@ -13486,7 +13517,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>403</v>
       </c>
@@ -13512,7 +13543,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>404</v>
       </c>
@@ -13526,7 +13557,7 @@
         <v>717473508</v>
       </c>
       <c r="E398">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F398">
         <v>1</v>
@@ -13538,7 +13569,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>405</v>
       </c>
@@ -13564,7 +13595,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>406</v>
       </c>
@@ -13590,7 +13621,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>407</v>
       </c>
@@ -13616,7 +13647,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>408</v>
       </c>
@@ -13642,7 +13673,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>409</v>
       </c>
@@ -13656,7 +13687,7 @@
         <v>234359146</v>
       </c>
       <c r="E403">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F403">
         <v>1</v>
@@ -13668,7 +13699,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>410</v>
       </c>
@@ -13694,7 +13725,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>411</v>
       </c>
@@ -13708,7 +13739,7 @@
         <v>43036928</v>
       </c>
       <c r="E405">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F405">
         <v>1</v>
@@ -13720,7 +13751,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>412</v>
       </c>
@@ -13734,7 +13765,7 @@
         <v>741723437</v>
       </c>
       <c r="E406">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F406">
         <v>1</v>
@@ -13746,7 +13777,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>413</v>
       </c>
@@ -13772,7 +13803,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>414</v>
       </c>
@@ -13798,7 +13829,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>415</v>
       </c>
@@ -13824,7 +13855,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>416</v>
       </c>
@@ -13850,7 +13881,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>417</v>
       </c>
@@ -13876,7 +13907,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>418</v>
       </c>
@@ -13902,7 +13933,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>419</v>
       </c>
@@ -13916,7 +13947,7 @@
         <v>1029918125</v>
       </c>
       <c r="E413">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F413">
         <v>1</v>
@@ -13928,7 +13959,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>420</v>
       </c>
@@ -13954,7 +13985,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>421</v>
       </c>
@@ -13980,7 +14011,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>422</v>
       </c>
@@ -14006,7 +14037,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>423</v>
       </c>
@@ -14020,7 +14051,7 @@
         <v>16843782</v>
       </c>
       <c r="E417">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F417">
         <v>1</v>
@@ -14032,7 +14063,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>424</v>
       </c>
@@ -14058,7 +14089,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>425</v>
       </c>
@@ -14084,7 +14115,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>426</v>
       </c>
@@ -14110,7 +14141,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -14124,7 +14155,7 @@
         <v>44512038</v>
       </c>
       <c r="E421">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F421">
         <v>1</v>
@@ -14136,7 +14167,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>428</v>
       </c>
@@ -14162,7 +14193,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>429</v>
       </c>
@@ -14188,7 +14219,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>430</v>
       </c>
@@ -14214,7 +14245,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>431</v>
       </c>
@@ -14228,7 +14259,7 @@
         <v>46695094</v>
       </c>
       <c r="E425">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F425">
         <v>1</v>
@@ -14240,7 +14271,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>432</v>
       </c>
@@ -14266,7 +14297,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>433</v>
       </c>
@@ -14294,18 +14325,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14316,7 +14350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -14327,7 +14361,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -14338,7 +14372,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -14349,7 +14383,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -14360,7 +14394,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -14371,7 +14405,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -14382,7 +14416,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -14393,7 +14427,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -14404,7 +14438,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -14415,7 +14449,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -14426,7 +14460,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -14437,7 +14471,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -14448,7 +14482,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -14459,7 +14493,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -14470,7 +14504,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -14481,7 +14515,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -14492,7 +14526,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -14503,7 +14537,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -14514,7 +14548,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -14525,7 +14559,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>259</v>
       </c>
@@ -14536,7 +14570,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>260</v>
       </c>
@@ -14547,7 +14581,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>265</v>
       </c>
@@ -14558,7 +14592,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>266</v>
       </c>
@@ -14569,7 +14603,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>279</v>
       </c>
@@ -14580,7 +14614,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>283</v>
       </c>
@@ -14591,7 +14625,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>291</v>
       </c>
@@ -14602,7 +14636,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -14613,7 +14647,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>294</v>
       </c>
@@ -14624,7 +14658,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>301</v>
       </c>
@@ -14635,7 +14669,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -14646,7 +14680,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>343</v>
       </c>
@@ -14657,7 +14691,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>359</v>
       </c>
@@ -14668,7 +14702,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -14679,7 +14713,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>386</v>
       </c>
@@ -14690,7 +14724,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>413</v>
       </c>
@@ -14701,7 +14735,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>429</v>
       </c>
@@ -14714,18 +14748,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14736,7 +14773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>874</v>
       </c>
@@ -14747,7 +14784,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>875</v>
       </c>
@@ -14758,7 +14795,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>876</v>
       </c>
@@ -14769,7 +14806,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>877</v>
       </c>
@@ -14780,7 +14817,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>878</v>
       </c>
@@ -14791,7 +14828,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>879</v>
       </c>
@@ -14802,7 +14839,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>880</v>
       </c>
@@ -14813,7 +14850,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>881</v>
       </c>
@@ -14824,7 +14861,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>882</v>
       </c>
@@ -14835,7 +14872,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>883</v>
       </c>
@@ -14846,7 +14883,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>884</v>
       </c>
@@ -14857,7 +14894,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>885</v>
       </c>
@@ -14868,7 +14905,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>886</v>
       </c>
@@ -14879,7 +14916,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>887</v>
       </c>
@@ -14890,7 +14927,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>888</v>
       </c>
@@ -14901,7 +14938,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>889</v>
       </c>
@@ -14912,7 +14949,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>890</v>
       </c>
@@ -14923,7 +14960,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>891</v>
       </c>
@@ -14934,7 +14971,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>892</v>
       </c>
@@ -14945,7 +14982,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>893</v>
       </c>
@@ -14956,7 +14993,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>894</v>
       </c>
@@ -14967,7 +15004,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>895</v>
       </c>
@@ -14978,7 +15015,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>896</v>
       </c>
@@ -14989,7 +15026,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>897</v>
       </c>
@@ -15000,7 +15037,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>898</v>
       </c>
@@ -15011,7 +15048,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>899</v>
       </c>
@@ -15022,7 +15059,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>900</v>
       </c>
@@ -15033,7 +15070,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>901</v>
       </c>
@@ -15044,7 +15081,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>902</v>
       </c>
@@ -15055,7 +15092,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>903</v>
       </c>
@@ -15066,7 +15103,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>904</v>
       </c>
@@ -15077,7 +15114,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>905</v>
       </c>
@@ -15090,5 +15127,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/GUI + Reviews/202512/Review 202512/Dataiku/EZMS_EMS_2025-12-11 23_59_59_2025-12-11-22-53-30.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EZMS_EMS_2025-12-11 23_59_59_2025-12-11-22-53-30.xlsx
@@ -1,36 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_8FF252D2A9AC14846E670B176B9D96DCD4BC5652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22036E28-52B5-4E02-B3A8-81C54748BEAA}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2857,8 +2838,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2921,21 +2902,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2973,7 +2946,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3007,7 +2980,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3042,10 +3014,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3218,16 +3189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="Q407" sqref="Q406:Q407"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3279,7 +3248,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3305,7 +3274,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3319,7 +3288,7 @@
         <v>110580102</v>
       </c>
       <c r="E4">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3331,7 +3300,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3357,7 +3326,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3383,7 +3352,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3409,7 +3378,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3435,7 +3404,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3461,7 +3430,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3487,7 +3456,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3513,7 +3482,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3539,7 +3508,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3565,7 +3534,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3591,7 +3560,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3617,7 +3586,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3643,7 +3612,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3669,7 +3638,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3695,7 +3664,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3721,7 +3690,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3747,7 +3716,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3761,7 +3730,7 @@
         <v>262769869</v>
       </c>
       <c r="E21">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3773,7 +3742,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3799,7 +3768,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3825,7 +3794,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3851,7 +3820,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3865,7 +3834,7 @@
         <v>601548734</v>
       </c>
       <c r="E25">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3877,7 +3846,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3903,7 +3872,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3929,7 +3898,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3943,7 +3912,7 @@
         <v>35343326</v>
       </c>
       <c r="E28">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3955,7 +3924,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3981,7 +3950,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3995,7 +3964,7 @@
         <v>226388620</v>
       </c>
       <c r="E30">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4007,7 +3976,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4033,7 +4002,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4059,7 +4028,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4073,7 +4042,7 @@
         <v>73184570</v>
       </c>
       <c r="E33">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4085,7 +4054,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -4111,7 +4080,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4137,7 +4106,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4163,7 +4132,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4177,7 +4146,7 @@
         <v>76060831</v>
       </c>
       <c r="E37">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4189,7 +4158,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4215,7 +4184,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -4241,7 +4210,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -4255,7 +4224,7 @@
         <v>209113565</v>
       </c>
       <c r="E40">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -4267,7 +4236,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -4293,7 +4262,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -4307,7 +4276,7 @@
         <v>15906272</v>
       </c>
       <c r="E42">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -4319,7 +4288,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -4333,7 +4302,7 @@
         <v>100050990</v>
       </c>
       <c r="E43">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4345,7 +4314,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -4371,7 +4340,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -4397,7 +4366,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -4423,7 +4392,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4449,7 +4418,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4463,7 +4432,7 @@
         <v>243921719</v>
       </c>
       <c r="E48">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4475,7 +4444,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4501,7 +4470,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4527,7 +4496,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4553,7 +4522,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -4567,7 +4536,7 @@
         <v>61540455</v>
       </c>
       <c r="E52">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -4579,7 +4548,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4605,7 +4574,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -4631,7 +4600,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -4657,7 +4626,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4683,7 +4652,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -4709,7 +4678,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -4723,7 +4692,7 @@
         <v>66000000</v>
       </c>
       <c r="E58">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4735,7 +4704,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -4761,7 +4730,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -4787,7 +4756,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4813,7 +4782,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -4839,7 +4808,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -4865,7 +4834,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -4891,7 +4860,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -4917,7 +4886,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4943,7 +4912,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -4969,7 +4938,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -4995,7 +4964,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -5021,7 +4990,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -5047,7 +5016,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -5073,7 +5042,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -5099,7 +5068,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -5125,7 +5094,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -5151,7 +5120,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -5177,7 +5146,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -5203,7 +5172,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -5229,7 +5198,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -5255,7 +5224,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -5281,7 +5250,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -5307,7 +5276,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -5333,7 +5302,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -5347,7 +5316,7 @@
         <v>171347471</v>
       </c>
       <c r="E82">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -5359,7 +5328,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -5385,7 +5354,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -5411,7 +5380,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -5437,7 +5406,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -5463,7 +5432,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -5489,7 +5458,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -5515,7 +5484,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -5541,7 +5510,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -5567,7 +5536,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -5593,7 +5562,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -5607,7 +5576,7 @@
         <v>119807490</v>
       </c>
       <c r="E92">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -5619,7 +5588,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -5645,7 +5614,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -5671,7 +5640,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -5697,7 +5666,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -5723,7 +5692,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -5749,7 +5718,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5775,7 +5744,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -5801,7 +5770,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5827,7 +5796,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5841,7 +5810,7 @@
         <v>34280750</v>
       </c>
       <c r="E101">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -5853,7 +5822,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -5867,7 +5836,7 @@
         <v>200005980</v>
       </c>
       <c r="E102">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -5879,7 +5848,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5905,7 +5874,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -5931,7 +5900,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5957,7 +5926,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -5983,7 +5952,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -6003,7 +5972,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -6029,7 +5998,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -6055,7 +6024,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -6081,7 +6050,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -6107,7 +6076,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -6133,7 +6102,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -6159,7 +6128,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -6185,7 +6154,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -6211,7 +6180,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -6237,7 +6206,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -6263,7 +6232,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -6289,7 +6258,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -6315,7 +6284,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -6341,7 +6310,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -6367,7 +6336,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -6393,7 +6362,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -6419,7 +6388,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -6445,7 +6414,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -6471,7 +6440,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -6497,7 +6466,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -6523,7 +6492,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -6549,7 +6518,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -6575,7 +6544,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -6601,7 +6570,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -6627,7 +6596,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -6653,7 +6622,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -6679,7 +6648,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -6705,7 +6674,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -6731,7 +6700,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -6745,7 +6714,7 @@
         <v>237553695</v>
       </c>
       <c r="E136">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -6757,7 +6726,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -6783,7 +6752,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -6809,7 +6778,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -6835,7 +6804,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -6861,7 +6830,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -6887,7 +6856,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -6913,7 +6882,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -6939,7 +6908,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -6965,7 +6934,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -6991,7 +6960,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -7005,7 +6974,7 @@
         <v>71925760</v>
       </c>
       <c r="E146">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -7017,7 +6986,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -7043,7 +7012,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -7069,7 +7038,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -7095,7 +7064,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -7109,7 +7078,7 @@
         <v>466000000</v>
       </c>
       <c r="E150">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -7121,7 +7090,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -7147,7 +7116,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -7173,7 +7142,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -7199,7 +7168,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -7225,7 +7194,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -7251,7 +7220,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -7277,7 +7246,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -7303,7 +7272,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -7329,7 +7298,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -7355,7 +7324,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -7381,7 +7350,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -7407,7 +7376,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -7433,7 +7402,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -7459,7 +7428,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -7485,7 +7454,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -7511,7 +7480,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -7537,7 +7506,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -7563,7 +7532,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -7577,7 +7546,7 @@
         <v>197089340</v>
       </c>
       <c r="E168">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -7589,7 +7558,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -7615,7 +7584,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -7641,7 +7610,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -7667,7 +7636,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -7693,7 +7662,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -7719,7 +7688,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -7733,7 +7702,7 @@
         <v>65897071</v>
       </c>
       <c r="E174">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -7745,7 +7714,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -7771,7 +7740,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -7785,7 +7754,7 @@
         <v>133200000</v>
       </c>
       <c r="E176">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -7797,7 +7766,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -7823,7 +7792,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -7837,7 +7806,7 @@
         <v>76792337</v>
       </c>
       <c r="E178">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -7849,7 +7818,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -7863,7 +7832,7 @@
         <v>550000000</v>
       </c>
       <c r="E179">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -7875,7 +7844,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -7901,7 +7870,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -7927,7 +7896,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -7953,7 +7922,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -7979,7 +7948,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -8005,7 +7974,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -8031,7 +8000,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -8057,7 +8026,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -8083,7 +8052,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -8109,7 +8078,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -8135,7 +8104,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -8161,7 +8130,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -8175,7 +8144,7 @@
         <v>99181149</v>
       </c>
       <c r="E191">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -8187,7 +8156,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -8213,7 +8182,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -8239,7 +8208,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -8265,7 +8234,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -8291,7 +8260,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -8317,7 +8286,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -8343,7 +8312,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -8369,7 +8338,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -8383,7 +8352,7 @@
         <v>1489538745</v>
       </c>
       <c r="E199">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -8395,7 +8364,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -8421,7 +8390,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -8447,7 +8416,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -8473,7 +8442,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -8499,7 +8468,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -8525,7 +8494,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -8551,7 +8520,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -8577,7 +8546,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -8603,7 +8572,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -8629,7 +8598,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -8655,7 +8624,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -8681,7 +8650,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -8707,7 +8676,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -8733,7 +8702,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -8759,7 +8728,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -8785,7 +8754,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -8811,7 +8780,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -8837,7 +8806,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -8863,7 +8832,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -8889,7 +8858,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -8915,7 +8884,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -8941,7 +8910,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -8967,7 +8936,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -8993,7 +8962,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -9019,7 +8988,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -9045,7 +9014,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -9071,7 +9040,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -9097,7 +9066,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -9123,7 +9092,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -9137,7 +9106,7 @@
         <v>123420778</v>
       </c>
       <c r="E228">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -9149,7 +9118,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -9175,7 +9144,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -9189,7 +9158,7 @@
         <v>131198650</v>
       </c>
       <c r="E230">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -9201,7 +9170,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -9227,7 +9196,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -9253,7 +9222,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -9279,7 +9248,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -9305,7 +9274,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -9331,7 +9300,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -9357,7 +9326,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -9383,7 +9352,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -9409,7 +9378,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -9435,7 +9404,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -9461,7 +9430,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -9487,7 +9456,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -9513,7 +9482,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -9539,7 +9508,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -9565,7 +9534,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -9591,7 +9560,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -9617,7 +9586,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -9643,7 +9612,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -9669,7 +9638,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -9695,7 +9664,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -9721,7 +9690,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -9747,7 +9716,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -9773,7 +9742,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -9799,7 +9768,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -9825,7 +9794,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -9851,7 +9820,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -9877,7 +9846,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -9903,7 +9872,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -9929,7 +9898,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -9955,7 +9924,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -9981,7 +9950,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -10007,7 +9976,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -10033,7 +10002,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -10059,7 +10028,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -10085,7 +10054,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -10111,7 +10080,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -10137,7 +10106,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -10163,7 +10132,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -10189,7 +10158,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -10215,7 +10184,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -10241,7 +10210,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -10267,7 +10236,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -10293,7 +10262,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>279</v>
       </c>
@@ -10319,7 +10288,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>280</v>
       </c>
@@ -10345,7 +10314,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>281</v>
       </c>
@@ -10371,7 +10340,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>282</v>
       </c>
@@ -10385,7 +10354,7 @@
         <v>769211060</v>
       </c>
       <c r="E276">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -10397,7 +10366,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>283</v>
       </c>
@@ -10423,7 +10392,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -10437,7 +10406,7 @@
         <v>43744779</v>
       </c>
       <c r="E278">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -10449,7 +10418,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -10475,7 +10444,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -10501,7 +10470,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -10527,7 +10496,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>288</v>
       </c>
@@ -10541,7 +10510,7 @@
         <v>236450360</v>
       </c>
       <c r="E282">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -10553,7 +10522,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -10579,7 +10548,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>290</v>
       </c>
@@ -10605,7 +10574,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>291</v>
       </c>
@@ -10631,7 +10600,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>292</v>
       </c>
@@ -10657,7 +10626,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -10683,7 +10652,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>294</v>
       </c>
@@ -10709,7 +10678,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>295</v>
       </c>
@@ -10735,7 +10704,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -10761,7 +10730,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -10775,7 +10744,7 @@
         <v>255032123</v>
       </c>
       <c r="E291">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -10787,7 +10756,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -10813,7 +10782,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -10839,7 +10808,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -10865,7 +10834,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -10891,7 +10860,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -10917,7 +10886,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -10943,7 +10912,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -10969,7 +10938,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -10983,7 +10952,7 @@
         <v>147174692</v>
       </c>
       <c r="E299">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -10995,7 +10964,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -11021,7 +10990,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -11047,7 +11016,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -11073,7 +11042,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -11099,7 +11068,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -11125,7 +11094,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>311</v>
       </c>
@@ -11151,7 +11120,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>312</v>
       </c>
@@ -11177,7 +11146,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -11203,7 +11172,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -11229,7 +11198,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>315</v>
       </c>
@@ -11255,7 +11224,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -11281,7 +11250,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -11307,7 +11276,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>318</v>
       </c>
@@ -11333,7 +11302,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>319</v>
       </c>
@@ -11359,7 +11328,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -11373,7 +11342,7 @@
         <v>175977424</v>
       </c>
       <c r="E314">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F314">
         <v>1</v>
@@ -11385,7 +11354,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>321</v>
       </c>
@@ -11411,7 +11380,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>322</v>
       </c>
@@ -11425,7 +11394,7 @@
         <v>209125156</v>
       </c>
       <c r="E316">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -11437,7 +11406,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -11463,7 +11432,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -11489,7 +11458,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
         <v>325</v>
       </c>
@@ -11515,7 +11484,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>326</v>
       </c>
@@ -11541,7 +11510,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>327</v>
       </c>
@@ -11567,7 +11536,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>328</v>
       </c>
@@ -11593,7 +11562,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>329</v>
       </c>
@@ -11619,7 +11588,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -11645,7 +11614,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -11671,7 +11640,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -11697,7 +11666,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -11723,7 +11692,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -11749,7 +11718,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>335</v>
       </c>
@@ -11775,7 +11744,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>336</v>
       </c>
@@ -11801,7 +11770,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>337</v>
       </c>
@@ -11827,7 +11796,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>338</v>
       </c>
@@ -11853,7 +11822,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>339</v>
       </c>
@@ -11879,7 +11848,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>340</v>
       </c>
@@ -11905,7 +11874,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>341</v>
       </c>
@@ -11931,7 +11900,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -11957,7 +11926,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -11983,7 +11952,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338" t="s">
         <v>344</v>
       </c>
@@ -12009,7 +11978,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339" t="s">
         <v>345</v>
       </c>
@@ -12035,7 +12004,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340" t="s">
         <v>346</v>
       </c>
@@ -12061,7 +12030,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341" t="s">
         <v>347</v>
       </c>
@@ -12075,7 +12044,7 @@
         <v>171361365</v>
       </c>
       <c r="E341">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F341">
         <v>1</v>
@@ -12087,7 +12056,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342" t="s">
         <v>348</v>
       </c>
@@ -12113,7 +12082,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>349</v>
       </c>
@@ -12127,7 +12096,7 @@
         <v>179363695</v>
       </c>
       <c r="E343">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -12139,7 +12108,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>350</v>
       </c>
@@ -12165,7 +12134,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345" t="s">
         <v>351</v>
       </c>
@@ -12179,7 +12148,7 @@
         <v>55337770</v>
       </c>
       <c r="E345">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -12191,7 +12160,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346" t="s">
         <v>352</v>
       </c>
@@ -12217,7 +12186,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>353</v>
       </c>
@@ -12243,7 +12212,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348" t="s">
         <v>354</v>
       </c>
@@ -12269,7 +12238,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>355</v>
       </c>
@@ -12295,7 +12264,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>356</v>
       </c>
@@ -12309,7 +12278,7 @@
         <v>128344238</v>
       </c>
       <c r="E350">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -12321,7 +12290,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -12347,7 +12316,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352" t="s">
         <v>358</v>
       </c>
@@ -12373,7 +12342,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>359</v>
       </c>
@@ -12399,7 +12368,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354" t="s">
         <v>360</v>
       </c>
@@ -12413,7 +12382,7 @@
         <v>3360857809</v>
       </c>
       <c r="E354">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -12425,7 +12394,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355" t="s">
         <v>361</v>
       </c>
@@ -12451,7 +12420,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356" t="s">
         <v>362</v>
       </c>
@@ -12465,7 +12434,7 @@
         <v>147454887</v>
       </c>
       <c r="E356">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -12477,7 +12446,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -12503,7 +12472,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358" t="s">
         <v>364</v>
       </c>
@@ -12529,7 +12498,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359" t="s">
         <v>365</v>
       </c>
@@ -12555,7 +12524,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>366</v>
       </c>
@@ -12581,7 +12550,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8">
       <c r="A361" t="s">
         <v>367</v>
       </c>
@@ -12595,7 +12564,7 @@
         <v>20547701</v>
       </c>
       <c r="E361">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F361">
         <v>1</v>
@@ -12607,7 +12576,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362" t="s">
         <v>368</v>
       </c>
@@ -12633,7 +12602,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363" t="s">
         <v>369</v>
       </c>
@@ -12647,7 +12616,7 @@
         <v>911281920</v>
       </c>
       <c r="E363">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -12659,7 +12628,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364" t="s">
         <v>370</v>
       </c>
@@ -12685,7 +12654,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>371</v>
       </c>
@@ -12711,7 +12680,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366" t="s">
         <v>372</v>
       </c>
@@ -12725,7 +12694,7 @@
         <v>103921273</v>
       </c>
       <c r="E366">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -12737,7 +12706,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367" t="s">
         <v>373</v>
       </c>
@@ -12763,7 +12732,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368" t="s">
         <v>374</v>
       </c>
@@ -12789,7 +12758,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369" t="s">
         <v>375</v>
       </c>
@@ -12815,7 +12784,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370" t="s">
         <v>376</v>
       </c>
@@ -12829,7 +12798,7 @@
         <v>184379301</v>
       </c>
       <c r="E370">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F370">
         <v>1</v>
@@ -12841,7 +12810,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371" t="s">
         <v>377</v>
       </c>
@@ -12867,7 +12836,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372" t="s">
         <v>378</v>
       </c>
@@ -12893,7 +12862,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373" t="s">
         <v>379</v>
       </c>
@@ -12907,7 +12876,7 @@
         <v>201327500</v>
       </c>
       <c r="E373">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F373">
         <v>1</v>
@@ -12919,7 +12888,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374" t="s">
         <v>380</v>
       </c>
@@ -12945,7 +12914,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375" t="s">
         <v>381</v>
       </c>
@@ -12959,7 +12928,7 @@
         <v>80301260</v>
       </c>
       <c r="E375">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F375">
         <v>1</v>
@@ -12971,7 +12940,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376" t="s">
         <v>382</v>
       </c>
@@ -12997,7 +12966,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377" t="s">
         <v>383</v>
       </c>
@@ -13023,7 +12992,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378" t="s">
         <v>384</v>
       </c>
@@ -13049,7 +13018,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379" t="s">
         <v>385</v>
       </c>
@@ -13075,7 +13044,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380" t="s">
         <v>386</v>
       </c>
@@ -13101,7 +13070,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381" t="s">
         <v>387</v>
       </c>
@@ -13127,7 +13096,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>388</v>
       </c>
@@ -13141,7 +13110,7 @@
         <v>2009992000</v>
       </c>
       <c r="E382">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F382">
         <v>1</v>
@@ -13153,7 +13122,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383" t="s">
         <v>389</v>
       </c>
@@ -13179,7 +13148,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
         <v>390</v>
       </c>
@@ -13205,7 +13174,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385" t="s">
         <v>391</v>
       </c>
@@ -13231,7 +13200,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386" t="s">
         <v>392</v>
       </c>
@@ -13257,7 +13226,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387" t="s">
         <v>393</v>
       </c>
@@ -13283,7 +13252,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
         <v>394</v>
       </c>
@@ -13297,7 +13266,7 @@
         <v>42198429</v>
       </c>
       <c r="E388">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F388">
         <v>1</v>
@@ -13309,7 +13278,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
         <v>395</v>
       </c>
@@ -13335,7 +13304,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
         <v>396</v>
       </c>
@@ -13361,7 +13330,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
         <v>397</v>
       </c>
@@ -13387,7 +13356,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
         <v>398</v>
       </c>
@@ -13413,7 +13382,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393" t="s">
         <v>399</v>
       </c>
@@ -13439,7 +13408,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
         <v>400</v>
       </c>
@@ -13453,7 +13422,7 @@
         <v>1834181554</v>
       </c>
       <c r="E394">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F394">
         <v>1</v>
@@ -13465,7 +13434,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395" t="s">
         <v>401</v>
       </c>
@@ -13491,7 +13460,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396" t="s">
         <v>402</v>
       </c>
@@ -13505,7 +13474,7 @@
         <v>143244727</v>
       </c>
       <c r="E396">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F396">
         <v>1</v>
@@ -13517,7 +13486,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397" t="s">
         <v>403</v>
       </c>
@@ -13543,7 +13512,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398" t="s">
         <v>404</v>
       </c>
@@ -13557,7 +13526,7 @@
         <v>717473508</v>
       </c>
       <c r="E398">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F398">
         <v>1</v>
@@ -13569,7 +13538,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399" t="s">
         <v>405</v>
       </c>
@@ -13595,7 +13564,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400" t="s">
         <v>406</v>
       </c>
@@ -13621,7 +13590,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401" t="s">
         <v>407</v>
       </c>
@@ -13647,7 +13616,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402" t="s">
         <v>408</v>
       </c>
@@ -13673,7 +13642,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403" t="s">
         <v>409</v>
       </c>
@@ -13687,7 +13656,7 @@
         <v>234359146</v>
       </c>
       <c r="E403">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F403">
         <v>1</v>
@@ -13699,7 +13668,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404" t="s">
         <v>410</v>
       </c>
@@ -13725,7 +13694,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405" t="s">
         <v>411</v>
       </c>
@@ -13739,7 +13708,7 @@
         <v>43036928</v>
       </c>
       <c r="E405">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F405">
         <v>1</v>
@@ -13751,7 +13720,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406" t="s">
         <v>412</v>
       </c>
@@ -13765,7 +13734,7 @@
         <v>741723437</v>
       </c>
       <c r="E406">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F406">
         <v>1</v>
@@ -13777,7 +13746,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407" t="s">
         <v>413</v>
       </c>
@@ -13803,7 +13772,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408" t="s">
         <v>414</v>
       </c>
@@ -13829,7 +13798,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409" t="s">
         <v>415</v>
       </c>
@@ -13855,7 +13824,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410" t="s">
         <v>416</v>
       </c>
@@ -13881,7 +13850,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411" t="s">
         <v>417</v>
       </c>
@@ -13907,7 +13876,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412" t="s">
         <v>418</v>
       </c>
@@ -13933,7 +13902,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413" t="s">
         <v>419</v>
       </c>
@@ -13947,7 +13916,7 @@
         <v>1029918125</v>
       </c>
       <c r="E413">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F413">
         <v>1</v>
@@ -13959,7 +13928,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414" t="s">
         <v>420</v>
       </c>
@@ -13985,7 +13954,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415" t="s">
         <v>421</v>
       </c>
@@ -14011,7 +13980,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416" t="s">
         <v>422</v>
       </c>
@@ -14037,7 +14006,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417" t="s">
         <v>423</v>
       </c>
@@ -14051,7 +14020,7 @@
         <v>16843782</v>
       </c>
       <c r="E417">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F417">
         <v>1</v>
@@ -14063,7 +14032,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418" t="s">
         <v>424</v>
       </c>
@@ -14089,7 +14058,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419" t="s">
         <v>425</v>
       </c>
@@ -14115,7 +14084,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420" t="s">
         <v>426</v>
       </c>
@@ -14141,7 +14110,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -14155,7 +14124,7 @@
         <v>44512038</v>
       </c>
       <c r="E421">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F421">
         <v>1</v>
@@ -14167,7 +14136,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422" t="s">
         <v>428</v>
       </c>
@@ -14193,7 +14162,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423" t="s">
         <v>429</v>
       </c>
@@ -14219,7 +14188,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424" t="s">
         <v>430</v>
       </c>
@@ -14245,7 +14214,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425" t="s">
         <v>431</v>
       </c>
@@ -14259,7 +14228,7 @@
         <v>46695094</v>
       </c>
       <c r="E425">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F425">
         <v>1</v>
@@ -14271,7 +14240,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426" t="s">
         <v>432</v>
       </c>
@@ -14297,7 +14266,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427" t="s">
         <v>433</v>
       </c>
@@ -14325,21 +14294,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14350,7 +14316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -14361,7 +14327,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -14372,7 +14338,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -14383,7 +14349,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -14394,7 +14360,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -14405,7 +14371,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -14416,7 +14382,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -14427,7 +14393,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -14438,7 +14404,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -14449,7 +14415,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -14460,7 +14426,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -14471,7 +14437,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -14482,7 +14448,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -14493,7 +14459,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -14504,7 +14470,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -14515,7 +14481,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -14526,7 +14492,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -14537,7 +14503,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -14548,7 +14514,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -14559,7 +14525,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>259</v>
       </c>
@@ -14570,7 +14536,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>260</v>
       </c>
@@ -14581,7 +14547,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>265</v>
       </c>
@@ -14592,7 +14558,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>266</v>
       </c>
@@ -14603,7 +14569,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>279</v>
       </c>
@@ -14614,7 +14580,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>283</v>
       </c>
@@ -14625,7 +14591,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>291</v>
       </c>
@@ -14636,7 +14602,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -14647,7 +14613,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>294</v>
       </c>
@@ -14658,7 +14624,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>301</v>
       </c>
@@ -14669,7 +14635,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -14680,7 +14646,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>343</v>
       </c>
@@ -14691,7 +14657,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>359</v>
       </c>
@@ -14702,7 +14668,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -14713,7 +14679,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>386</v>
       </c>
@@ -14724,7 +14690,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>413</v>
       </c>
@@ -14735,7 +14701,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>429</v>
       </c>
@@ -14748,21 +14714,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14773,7 +14736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>874</v>
       </c>
@@ -14784,7 +14747,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>875</v>
       </c>
@@ -14795,7 +14758,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>876</v>
       </c>
@@ -14806,7 +14769,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>877</v>
       </c>
@@ -14817,7 +14780,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>878</v>
       </c>
@@ -14828,7 +14791,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>879</v>
       </c>
@@ -14839,7 +14802,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>880</v>
       </c>
@@ -14850,7 +14813,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>881</v>
       </c>
@@ -14861,7 +14824,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>882</v>
       </c>
@@ -14872,7 +14835,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>883</v>
       </c>
@@ -14883,7 +14846,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>884</v>
       </c>
@@ -14894,7 +14857,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>885</v>
       </c>
@@ -14905,7 +14868,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>886</v>
       </c>
@@ -14916,7 +14879,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>887</v>
       </c>
@@ -14927,7 +14890,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>888</v>
       </c>
@@ -14938,7 +14901,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>889</v>
       </c>
@@ -14949,7 +14912,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>890</v>
       </c>
@@ -14960,7 +14923,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>891</v>
       </c>
@@ -14971,7 +14934,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>892</v>
       </c>
@@ -14982,7 +14945,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>893</v>
       </c>
@@ -14993,7 +14956,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>894</v>
       </c>
@@ -15004,7 +14967,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>895</v>
       </c>
@@ -15015,7 +14978,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>896</v>
       </c>
@@ -15026,7 +14989,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>897</v>
       </c>
@@ -15037,7 +15000,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>898</v>
       </c>
@@ -15048,7 +15011,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>899</v>
       </c>
@@ -15059,7 +15022,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>900</v>
       </c>
@@ -15070,7 +15033,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>901</v>
       </c>
@@ -15081,7 +15044,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>902</v>
       </c>
@@ -15092,7 +15055,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>903</v>
       </c>
@@ -15103,7 +15066,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>904</v>
       </c>
@@ -15114,7 +15077,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>905</v>
       </c>
@@ -15127,8 +15090,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>